--- a/experiment result/64_0.2_40_zs40_kappa_lp.xlsx
+++ b/experiment result/64_0.2_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0450893828151798</v>
+        <v>0.002508341892611935</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06276718643675791</v>
+        <v>0.00230944721667289</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06240730978312378</v>
+        <v>0.005198947642277715</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474747978499717</v>
+        <v>0.003265057939240553</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03730785612816089</v>
+        <v>0.002767396205030454</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05635936098845051</v>
+        <v>0.005476977411930336</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06079908143254557</v>
+        <v>0.001103119120189577</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.045820420243724</v>
+        <v>0.005012845273328113</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03415118873827689</v>
+        <v>0.001377021257294235</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05527265027349011</v>
+        <v>0.03795905856745359</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08780964803251627</v>
+        <v>0.01415112390130673</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07098261415055758</v>
+        <v>0.0258301521392832</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08776885216263372</v>
+        <v>0.002183649219343343</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09673647723814868</v>
+        <v>0.004824494770802444</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05710922008140797</v>
+        <v>0.006829189691283331</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0573652146500007</v>
+        <v>0.001565370730937837</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05957626394008353</v>
+        <v>0.006412004676442729</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05556810058031503</v>
+        <v>0.0005477056251723898</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04553026704749012</v>
+        <v>0.004903270033275204</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06253165260105832</v>
+        <v>0.002804450961191066</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0432734635903405</v>
+        <v>0.002152519963271707</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03973640641136982</v>
+        <v>0.001931329324466273</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06736720919651037</v>
+        <v>0.006832274080969125</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03046089775036704</v>
+        <v>0.0009377036262444292</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0376471070479813</v>
+        <v>0.003208390620958427</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06192967395874621</v>
+        <v>0.01157094689250395</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0548492860142548</v>
+        <v>0.004974329811133454</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03031913347305997</v>
+        <v>0.006569653935695698</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04778769055410882</v>
+        <v>0.0032055424768689</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05656593419378023</v>
+        <v>0.004037628237945659</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03147463076255051</v>
+        <v>0.0005706006840838272</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05246005325979772</v>
+        <v>0.001334261722716669</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06572663486275561</v>
+        <v>0.004833931951470797</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03565610684095211</v>
+        <v>0.0004195536613589315</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03449735925299947</v>
+        <v>0.004872886484780717</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05802032417446686</v>
+        <v>0.005422155147340475</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03793391426449363</v>
+        <v>0.0005091448552312875</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07806781138773569</v>
+        <v>0.002275505293485694</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02543129680720155</v>
+        <v>0.002409143103604939</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05917002482442848</v>
+        <v>0.01267176237707912</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07357139001250837</v>
+        <v>0.06569425170620086</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04034561819690248</v>
+        <v>0.006371318578512845</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02952701998637242</v>
+        <v>0.007944773277941547</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03166882301374283</v>
+        <v>0.002562602454838899</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02824038771051117</v>
+        <v>0.002507977532592204</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07367454513785741</v>
+        <v>0.004779239953572273</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08316527289981213</v>
+        <v>0.005462873700178337</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04582940486074565</v>
+        <v>0.001146314072452024</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0721840029131611</v>
+        <v>0.004805316968570745</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0737248154170924</v>
+        <v>0.000646148826939021</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04465130211998388</v>
+        <v>0.003949742720487839</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04987310497374819</v>
+        <v>0.003322361109951661</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02564798907549258</v>
+        <v>5.24335040548449e-06</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04112631315307599</v>
+        <v>0.0004712737424858998</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05799114940332176</v>
+        <v>0.002324853991704436</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04137632931394704</v>
+        <v>0.007019478344716791</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05171677780078846</v>
+        <v>0.001376969836797733</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05584013747800041</v>
+        <v>0.001835338063131747</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09064768750946918</v>
+        <v>0.005255834085744881</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0618359394362086</v>
+        <v>0.0005833157842733299</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02393899211386679</v>
+        <v>0.000335400858670901</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03508788621880679</v>
+        <v>0.003434430900728618</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05516370592352204</v>
+        <v>0.005930722496898857</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02735247673377825</v>
+        <v>0.001152336015776312</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04582185270613422</v>
+        <v>0.005664872846959007</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05525510154701559</v>
+        <v>0.005192490916397126</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0383375862346358</v>
+        <v>0.00257837812045148</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03721291832846101</v>
+        <v>0.0008567901369186248</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04525804080138231</v>
+        <v>0.000355704867245052</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04042187174819235</v>
+        <v>0.00334706307478175</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06951546522283497</v>
+        <v>0.002723594992482549</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.05487994345276248</v>
+        <v>0.00120034491323629</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07506132206819695</v>
+        <v>0.004498745130635471</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.04802982381553422</v>
+        <v>0.004489227750004097</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.026582297489199</v>
+        <v>0.005899434151778173</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04738069923430924</v>
+        <v>0.02616486644567982</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.05555538568450252</v>
+        <v>0.000210557493166844</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0379368609306003</v>
+        <v>0.02888597362561881</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0344272718793662</v>
+        <v>0.00333160838796608</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03930300168478983</v>
+        <v>0.002708198963486726</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0314958319721004</v>
+        <v>0.003983413272905444</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1018434928964977</v>
+        <v>0.002862505395252711</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05760355770665483</v>
+        <v>0.002654602819062494</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.08963266285855354</v>
+        <v>0.004490708335837223</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.04695225758647489</v>
+        <v>0.04511947822680283</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0670976478165262</v>
+        <v>0.002420810645850715</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.07394845240482123</v>
+        <v>0.004870216274069095</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.05923566595019861</v>
+        <v>0.003249660622307925</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.03683722851649161</v>
+        <v>0.002580638262845319</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.04985698355434874</v>
+        <v>0.001247570162944746</v>
       </c>
     </row>
   </sheetData>
